--- a/opm_hero_property/heroes/11.xlsx
+++ b/opm_hero_property/heroes/11.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11051</v>
       </c>
       <c r="D4" t="n">
-        <v>11051</v>
+        <v>11649</v>
       </c>
       <c r="E4" t="n">
         <v>270</v>
@@ -1304,7 +1305,7 @@
         <v>12243</v>
       </c>
       <c r="D5" t="n">
-        <v>12243</v>
+        <v>13518</v>
       </c>
       <c r="E5" t="n">
         <v>404</v>
@@ -1411,7 +1412,7 @@
         <v>13644</v>
       </c>
       <c r="D6" t="n">
-        <v>13644</v>
+        <v>15717</v>
       </c>
       <c r="E6" t="n">
         <v>554</v>
@@ -1518,7 +1519,7 @@
         <v>15256</v>
       </c>
       <c r="D7" t="n">
-        <v>15256</v>
+        <v>20306</v>
       </c>
       <c r="E7" t="n">
         <v>1038</v>
@@ -1625,7 +1626,7 @@
         <v>17079</v>
       </c>
       <c r="D8" t="n">
-        <v>17079</v>
+        <v>26655</v>
       </c>
       <c r="E8" t="n">
         <v>1538</v>
@@ -1732,7 +1733,7 @@
         <v>19181</v>
       </c>
       <c r="D9" t="n">
-        <v>19181</v>
+        <v>35203</v>
       </c>
       <c r="E9" t="n">
         <v>2031</v>
@@ -1839,7 +1840,7 @@
         <v>20303</v>
       </c>
       <c r="D10" t="n">
-        <v>20303</v>
+        <v>42321</v>
       </c>
       <c r="E10" t="n">
         <v>2400</v>
@@ -1946,7 +1947,7 @@
         <v>21634</v>
       </c>
       <c r="D11" t="n">
-        <v>21634</v>
+        <v>51061</v>
       </c>
       <c r="E11" t="n">
         <v>2800</v>
@@ -2053,7 +2054,7 @@
         <v>24438</v>
       </c>
       <c r="D12" t="n">
-        <v>24438</v>
+        <v>66617</v>
       </c>
       <c r="E12" t="n">
         <v>3446</v>
@@ -2160,7 +2161,7 @@
         <v>24999</v>
       </c>
       <c r="D13" t="n">
-        <v>24999</v>
+        <v>68816</v>
       </c>
       <c r="E13" t="n">
         <v>3877</v>
@@ -2267,7 +2268,7 @@
         <v>25559</v>
       </c>
       <c r="D14" t="n">
-        <v>25559</v>
+        <v>71014</v>
       </c>
       <c r="E14" t="n">
         <v>4307</v>
@@ -2374,7 +2375,7 @@
         <v>26120</v>
       </c>
       <c r="D15" t="n">
-        <v>26120</v>
+        <v>73213</v>
       </c>
       <c r="E15" t="n">
         <v>4738</v>
@@ -2481,7 +2482,7 @@
         <v>26681</v>
       </c>
       <c r="D16" t="n">
-        <v>26681</v>
+        <v>75412</v>
       </c>
       <c r="E16" t="n">
         <v>5169</v>
@@ -2588,7 +2589,7 @@
         <v>27241</v>
       </c>
       <c r="D17" t="n">
-        <v>27241</v>
+        <v>77610</v>
       </c>
       <c r="E17" t="n">
         <v>5600</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29342.108158</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5429.251858000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2048.6407641</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41616.419053</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7671.307597000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3220.545855</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>76874.11445200001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13309.005375</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6939.704534</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>76874.11445200001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13309.005375</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6939.704534</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>70557.995692</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12207.056625</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6535.511114000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>285670.872566</v>
+      </c>
+      <c r="U7" t="n">
+        <v>45710.96044</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30659.6697767</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>256551.018986</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41083.30323999999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>28500.6686057</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>266257.636846</v>
+      </c>
+      <c r="U9" t="n">
+        <v>42625.85563999999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29220.3356627</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>275964.254706</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44168.40803999999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29940.0027197</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>285670.872566</v>
+      </c>
+      <c r="U11" t="n">
+        <v>45710.96044</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30659.6697767</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>285670.872566</v>
+      </c>
+      <c r="U12" t="n">
+        <v>45710.96044</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30659.6697767</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>428786.246877</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68058.10170299999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51322.01637960001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>428786.246877</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68058.10170299999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51322.01637960001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3950</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1063510.2409635</v>
+      </c>
+      <c r="U15" t="n">
+        <v>167266.437386</v>
+      </c>
+      <c r="V15" t="n">
+        <v>139299.0008</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5482185.74644</v>
+      </c>
+      <c r="U16" t="n">
+        <v>860585.3069515</v>
+      </c>
+      <c r="V16" t="n">
+        <v>723643.452871</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8975336.15102</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1407550.1236685</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1173825.369172</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5700</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>239589.876663</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41863.4170645</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26082.8729804</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>321925.270437</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54173.265218</v>
+      </c>
+      <c r="V19" t="n">
+        <v>35950.4475574</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>415498.345934</v>
+      </c>
+      <c r="U20" t="n">
+        <v>67379.83360899999</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50377.39969590001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>11</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>477967.2552665</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79076.053669</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58839.3843322</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3950</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>11</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>553607.51565</v>
+      </c>
+      <c r="U22" t="n">
+        <v>95829.752507</v>
+      </c>
+      <c r="V22" t="n">
+        <v>71075.9813444</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>707592.97638</v>
+      </c>
+      <c r="U23" t="n">
+        <v>130102.5845055</v>
+      </c>
+      <c r="V23" t="n">
+        <v>95914.65186300001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/11.xlsx
+++ b/opm_hero_property/heroes/11.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29342.108158</v>
+        <v>5617062.74644</v>
       </c>
       <c r="U2" t="n">
-        <v>5429.251858000001</v>
+        <v>884313.3069515</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.6407641</v>
+        <v>745483.452871</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1650</v>
+        <v>2610</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>4790</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11801697.24322</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1617886.6251936</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16020480.9184136</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41616.419053</v>
+        <v>707592.97638</v>
       </c>
       <c r="U3" t="n">
-        <v>7671.307597000001</v>
+        <v>130102.5845055</v>
       </c>
       <c r="V3" t="n">
-        <v>3220.545855</v>
+        <v>95914.65186300001</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1650</v>
+        <v>2610</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>4790</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1337817.27214</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>183286.2855402</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2171936.5576802</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>76874.11445200001</v>
+        <v>7720.8036</v>
       </c>
       <c r="U4" t="n">
-        <v>13309.005375</v>
+        <v>1582.3436</v>
       </c>
       <c r="V4" t="n">
-        <v>6939.704534</v>
+        <v>594.0436999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1650</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19318.075715</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23868.025715</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>76874.11445200001</v>
+        <v>20789.9126</v>
       </c>
       <c r="U5" t="n">
-        <v>13309.005375</v>
+        <v>3953.5174</v>
       </c>
       <c r="V5" t="n">
-        <v>6939.704534</v>
+        <v>1833.235</v>
       </c>
       <c r="W5" t="n">
-        <v>1500</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1650</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2070</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49504.38391</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61492.73391</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>70557.995692</v>
+        <v>59347.4584</v>
       </c>
       <c r="U6" t="n">
-        <v>12207.056625</v>
+        <v>10230.325</v>
       </c>
       <c r="V6" t="n">
-        <v>6535.511114000001</v>
+        <v>5771.038</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2070</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119445.5694</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>168092.6694</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>285670.872566</v>
+        <v>59347.4584</v>
       </c>
       <c r="U7" t="n">
-        <v>45710.96044</v>
+        <v>10230.325</v>
       </c>
       <c r="V7" t="n">
-        <v>30659.6697767</v>
+        <v>5771.038</v>
       </c>
       <c r="W7" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2610</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>119445.5694</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>168267.6694</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>256551.018986</v>
+        <v>59557.995692</v>
       </c>
       <c r="U8" t="n">
-        <v>41083.30323999999</v>
+        <v>10267.056625</v>
       </c>
       <c r="V8" t="n">
-        <v>28500.6686057</v>
+        <v>5784.511114000001</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>119445.5694</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>541.45591</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>168809.12531</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>266257.636846</v>
+        <v>254791.3572</v>
       </c>
       <c r="U9" t="n">
-        <v>42625.85563999999</v>
+        <v>41086.048</v>
       </c>
       <c r="V9" t="n">
-        <v>29220.3356627</v>
+        <v>28555.7019</v>
       </c>
       <c r="W9" t="n">
         <v>2300</v>
@@ -7594,7 +7802,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2310</v>
+        <v>2160</v>
       </c>
       <c r="AA9" t="n">
         <v>3810</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>545765.774325</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>714774.374325</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>275964.254706</v>
+        <v>255762.018986</v>
       </c>
       <c r="U10" t="n">
-        <v>44168.40803999999</v>
+        <v>41240.30323999999</v>
       </c>
       <c r="V10" t="n">
-        <v>29940.0027197</v>
+        <v>28627.6686057</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -7705,7 +7937,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2460</v>
+        <v>2160</v>
       </c>
       <c r="AA10" t="n">
         <v>3810</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>545765.774325</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2448.831499775</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>717223.2058247749</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>285670.872566</v>
+        <v>265468.636846</v>
       </c>
       <c r="U11" t="n">
-        <v>45710.96044</v>
+        <v>42782.85563999999</v>
       </c>
       <c r="V11" t="n">
-        <v>30659.6697767</v>
+        <v>29347.3356627</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -7816,7 +8072,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2610</v>
+        <v>2310</v>
       </c>
       <c r="AA11" t="n">
         <v>3810</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>545765.774325</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>27064.646497525</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>741839.0208225249</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,36 +8181,36 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>285670.872566</v>
+        <v>275175.254706</v>
       </c>
       <c r="U12" t="n">
-        <v>45710.96044</v>
+        <v>44325.40803999999</v>
       </c>
       <c r="V12" t="n">
-        <v>30659.6697767</v>
+        <v>30067.0027197</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2610</v>
+        <v>2460</v>
       </c>
       <c r="AA12" t="n">
-        <v>3740</v>
+        <v>3810</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>545765.774325</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>51680.46149527501</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>766454.8358202749</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,23 +8320,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>428786.246877</v>
+        <v>284881.872566</v>
       </c>
       <c r="U13" t="n">
-        <v>68058.10170299999</v>
+        <v>45867.96044</v>
       </c>
       <c r="V13" t="n">
-        <v>51322.01637960001</v>
+        <v>30786.6697767</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8041,7 +8345,7 @@
         <v>2610</v>
       </c>
       <c r="AA13" t="n">
-        <v>3880</v>
+        <v>3810</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>545765.774325</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>76296.27649302501</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>791070.650818025</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,23 +8455,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>428786.246877</v>
+        <v>284881.872566</v>
       </c>
       <c r="U14" t="n">
-        <v>68058.10170299999</v>
+        <v>45867.96044</v>
       </c>
       <c r="V14" t="n">
-        <v>51322.01637960001</v>
+        <v>30786.6697767</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8152,7 +8480,7 @@
         <v>2610</v>
       </c>
       <c r="AA14" t="n">
-        <v>3950</v>
+        <v>3740</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>545765.774325</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>76296.27649302501</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>790895.650818025</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,23 +8590,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1063510.2409635</v>
+        <v>431286.246877</v>
       </c>
       <c r="U15" t="n">
-        <v>167266.437386</v>
+        <v>68866.10170299999</v>
       </c>
       <c r="V15" t="n">
-        <v>139299.0008</v>
+        <v>52096.01637960001</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8263,7 +8615,7 @@
         <v>2610</v>
       </c>
       <c r="AA15" t="n">
-        <v>4230</v>
+        <v>3880</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>842746.58124</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>116504.8115704</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1218865.9428104</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,23 +8725,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5482185.74644</v>
+        <v>431286.246877</v>
       </c>
       <c r="U16" t="n">
-        <v>860585.3069515</v>
+        <v>68866.10170299999</v>
       </c>
       <c r="V16" t="n">
-        <v>723643.452871</v>
+        <v>52096.01637960001</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8374,7 +8750,7 @@
         <v>2610</v>
       </c>
       <c r="AA16" t="n">
-        <v>4790</v>
+        <v>3950</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>842746.58124</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>116504.8115704</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1219040.9428104</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,23 +8860,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8975336.15102</v>
+        <v>1101005.2409635</v>
       </c>
       <c r="U17" t="n">
-        <v>1407550.1236685</v>
+        <v>174123.437386</v>
       </c>
       <c r="V17" t="n">
-        <v>1173825.369172</v>
+        <v>145932.0008</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8485,7 +8885,7 @@
         <v>2610</v>
       </c>
       <c r="AA17" t="n">
-        <v>5700</v>
+        <v>4230</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1937468.28998</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>264354.0735468999</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3155292.4635269</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>239589.876663</v>
+        <v>5617062.74644</v>
       </c>
       <c r="U18" t="n">
-        <v>41863.4170645</v>
+        <v>884313.3069515</v>
       </c>
       <c r="V18" t="n">
-        <v>26082.8729804</v>
+        <v>745483.452871</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2610</v>
       </c>
       <c r="AA18" t="n">
-        <v>2070</v>
+        <v>4790</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11801697.24322</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1617886.6251936</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16020480.9184136</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,46 +9116,46 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>321925.270437</v>
+        <v>9285054.15102</v>
       </c>
       <c r="U19" t="n">
-        <v>54173.265218</v>
+        <v>1461583.1236685</v>
       </c>
       <c r="V19" t="n">
-        <v>35950.4475574</v>
+        <v>1223057.369172</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2310</v>
+        <v>2610</v>
       </c>
       <c r="AA19" t="n">
-        <v>3740</v>
+        <v>5700</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>19148247.01463</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2626736.71244165</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26419959.07707165</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>415498.345934</v>
+        <v>228589.876663</v>
       </c>
       <c r="U20" t="n">
-        <v>67379.83360899999</v>
+        <v>39923.4170645</v>
       </c>
       <c r="V20" t="n">
-        <v>50377.39969590001</v>
+        <v>25331.8729804</v>
       </c>
       <c r="W20" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2460</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>570914.1387100001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2585.38533535</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>654867.22404535</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>477967.2552665</v>
+        <v>298825.270437</v>
       </c>
       <c r="U21" t="n">
-        <v>79076.053669</v>
+        <v>50099.265218</v>
       </c>
       <c r="V21" t="n">
-        <v>58839.3843322</v>
+        <v>34373.6475574</v>
       </c>
       <c r="W21" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2610</v>
+        <v>1500</v>
       </c>
       <c r="AA21" t="n">
-        <v>3950</v>
+        <v>2390</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>680013.8716899999</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>33721.85220625001</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>849682.4238962501</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,46 +9521,46 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>553607.51565</v>
+        <v>415498.345934</v>
       </c>
       <c r="U22" t="n">
-        <v>95829.752507</v>
+        <v>67379.83360899999</v>
       </c>
       <c r="V22" t="n">
-        <v>71075.9813444</v>
+        <v>50377.39969590001</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2610</v>
+        <v>2460</v>
       </c>
       <c r="AA22" t="n">
-        <v>4230</v>
+        <v>3810</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>866345.172795</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>81123.023292525</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1182638.246087525</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,23 +9670,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>707592.97638</v>
+        <v>477967.2552665</v>
       </c>
       <c r="U23" t="n">
-        <v>130102.5845055</v>
+        <v>79076.053669</v>
       </c>
       <c r="V23" t="n">
-        <v>95914.65186300001</v>
+        <v>58839.3843322</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9151,7 +9695,7 @@
         <v>2610</v>
       </c>
       <c r="AA23" t="n">
-        <v>4790</v>
+        <v>3950</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>947156.29847</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>130630.08702275</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1374944.98549275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>553607.51565</v>
+      </c>
+      <c r="U24" t="n">
+        <v>95829.752507</v>
+      </c>
+      <c r="V24" t="n">
+        <v>71075.9813444</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4230</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1074419.65896</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>147763.3417186</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1637246.2006786</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>11</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>707592.97638</v>
+      </c>
+      <c r="U25" t="n">
+        <v>130102.5845055</v>
+      </c>
+      <c r="V25" t="n">
+        <v>95914.65186300001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1337817.27214</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>183286.2855402</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2171936.5576802</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/11.xlsx
+++ b/opm_hero_property/heroes/11.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,34686;31,9834;41,2633</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,29503;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,14751;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4248;31,1180;41,372</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3540;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1770;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>34686.288</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9834.468000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2633.2894</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>29503.404</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>14751.702</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>4248.804</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1180.284</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>372.243</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>3540.852</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>1770.426</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,34690;31,9835;41,2633</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,29507;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,14753;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4252;31,1181;41,372</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3545;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1772;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>34690.068</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>9835.938</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2633.7236</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>29507.814</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>14753.907</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4252.584</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1181.754</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>372.6772</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>3545.262</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>1772.631</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,37405;31,10855;41,3052</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,32565;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,16282;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4544;31,1291;41,418</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,3874;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1937;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>37405.2322336</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>10855.2496206</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3052.88866682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>32565.7488618</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>16282.8744309</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>4544.9245072</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1291.5108822</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>418.99571546</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>3874.5326466</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>1937.2663233</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,40481;31,12011;41,3527</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,36033;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,18016;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4875;31,1415;41,471</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,4247;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2123;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>40481.4321968</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>12011.1604158</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3527.91837324</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>36033.4812474</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>18016.7406237</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>4875.6634136</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1415.8429446</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>471.43584972</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>4247.5288338</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2123.7644169</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,55124;31,11141;41,4282</t>
+          <t>21,44099;31,13369;41,4086</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,55124;31,11141;41,4282</t>
+          <t>21,0;31,40108;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27562;31,5570;41,2141</t>
+          <t>21,0;31,20054;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6580;31,1301;41,558</t>
+          <t>21,5264;31,1561;41,533</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6580;31,1301;41,558</t>
+          <t>21,0;31,4685;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3290;31,650;41,279</t>
+          <t>21,0;31,2342;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>55124</v>
+        <v>44099.6757544</v>
       </c>
       <c r="O6" t="n">
-        <v>11141</v>
+        <v>13369.6117464</v>
       </c>
       <c r="P6" t="n">
-        <v>4282</v>
+        <v>4086.81183906</v>
       </c>
       <c r="Q6" t="n">
-        <v>55124</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11141</v>
+        <v>40108.8352392</v>
       </c>
       <c r="S6" t="n">
-        <v>4282</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27562</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5570</v>
+        <v>20054.4176196</v>
       </c>
       <c r="V6" t="n">
-        <v>2141</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6580</v>
+        <v>5264.4899188</v>
       </c>
       <c r="X6" t="n">
-        <v>1301</v>
+        <v>1561.8430968</v>
       </c>
       <c r="Y6" t="n">
-        <v>558</v>
+        <v>533.1252121800001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6580</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1301</v>
+        <v>4685.529290400001</v>
       </c>
       <c r="AB6" t="n">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3290</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>650</v>
+        <v>2342.7646452</v>
       </c>
       <c r="AE6" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,62452;31,12445;41,5505</t>
+          <t>21,49961;31,14934;41,5254</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,62452;31,12445;41,5505</t>
+          <t>21,0;31,44804;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,31226;31,6222;41,2752</t>
+          <t>21,0;31,22402;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7375;31,1443;41,694</t>
+          <t>21,5900;31,1731;41,662</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7375;31,1443;41,694</t>
+          <t>21,0;31,5195;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3687;31,721;41,347</t>
+          <t>21,0;31,2597;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>62452</v>
+        <v>49961.7789216</v>
       </c>
       <c r="O7" t="n">
-        <v>12445</v>
+        <v>14934.8085936</v>
       </c>
       <c r="P7" t="n">
-        <v>5505</v>
+        <v>5254.034635079999</v>
       </c>
       <c r="Q7" t="n">
-        <v>62452</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12445</v>
+        <v>44804.4257808</v>
       </c>
       <c r="S7" t="n">
-        <v>5505</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>31226</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6222</v>
+        <v>22402.2128904</v>
       </c>
       <c r="V7" t="n">
-        <v>2752</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7375</v>
+        <v>5900.4770832</v>
       </c>
       <c r="X7" t="n">
-        <v>1443</v>
+        <v>1731.9854832</v>
       </c>
       <c r="Y7" t="n">
-        <v>694</v>
+        <v>662.75381524</v>
       </c>
       <c r="Z7" t="n">
-        <v>7375</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1443</v>
+        <v>5195.9564496</v>
       </c>
       <c r="AB7" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3687</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>721</v>
+        <v>2597.9782248</v>
       </c>
       <c r="AE7" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,71930;31,13919;41,7197</t>
+          <t>21,57544;31,16703;41,6868</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,71930;31,13919;41,7197</t>
+          <t>21,0;31,50111;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,35965;31,6959;41,3598</t>
+          <t>21,0;31,25055;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8399;31,1602;41,881</t>
+          <t>21,6719;31,1923;41,841</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8399;31,1602;41,881</t>
+          <t>21,0;31,5769;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4199;31,801;41,440</t>
+          <t>21,0;31,2884;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>71930</v>
+        <v>57544.4921968</v>
       </c>
       <c r="O8" t="n">
-        <v>13919</v>
+        <v>16703.6849574</v>
       </c>
       <c r="P8" t="n">
-        <v>7197</v>
+        <v>6868.4751479</v>
       </c>
       <c r="Q8" t="n">
-        <v>71930</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13919</v>
+        <v>50111.0548722</v>
       </c>
       <c r="S8" t="n">
-        <v>7197</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35965</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6959</v>
+        <v>25055.5274361</v>
       </c>
       <c r="V8" t="n">
-        <v>3598</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8399</v>
+        <v>6719.9814136</v>
       </c>
       <c r="X8" t="n">
-        <v>1602</v>
+        <v>1923.2041038</v>
       </c>
       <c r="Y8" t="n">
-        <v>881</v>
+        <v>841.6559687</v>
       </c>
       <c r="Z8" t="n">
-        <v>8399</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1602</v>
+        <v>5769.6123114</v>
       </c>
       <c r="AB8" t="n">
-        <v>881</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4199</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>801</v>
+        <v>2884.8061557</v>
       </c>
       <c r="AE8" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,84116;31,15618;41,9474</t>
+          <t>21,67293;31,18742;41,9041</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,84116;31,15618;41,9474</t>
+          <t>21,0;31,56226;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,42058;31,7809;41,4737</t>
+          <t>21,0;31,28113;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9712;31,1785;41,1133</t>
+          <t>21,7769;31,2142;41,1081</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9712;31,1785;41,1133</t>
+          <t>21,0;31,6427;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4856;31,892;41,566</t>
+          <t>21,0;31,3213;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>84116</v>
+        <v>67293.3918496</v>
       </c>
       <c r="O9" t="n">
-        <v>15618</v>
+        <v>18742.0981986</v>
       </c>
       <c r="P9" t="n">
-        <v>9474</v>
+        <v>9041.475126539999</v>
       </c>
       <c r="Q9" t="n">
-        <v>84116</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15618</v>
+        <v>56226.2945958</v>
       </c>
       <c r="S9" t="n">
-        <v>9474</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>42058</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7809</v>
+        <v>28113.1472979</v>
       </c>
       <c r="V9" t="n">
-        <v>4737</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9712</v>
+        <v>7769.8481392</v>
       </c>
       <c r="X9" t="n">
-        <v>1785</v>
+        <v>2142.5078682</v>
       </c>
       <c r="Y9" t="n">
-        <v>1133</v>
+        <v>1081.91348462</v>
       </c>
       <c r="Z9" t="n">
-        <v>9712</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1785</v>
+        <v>6427.5236046</v>
       </c>
       <c r="AB9" t="n">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4856</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>892</v>
+        <v>3213.7618023</v>
       </c>
       <c r="AE9" t="n">
-        <v>566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,93249;31,16525;41,11370</t>
+          <t>21,74599;31,19830;41,10850</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,93249;31,16525;41,11370</t>
+          <t>21,0;31,59490;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,46624;31,8262;41,5685</t>
+          <t>21,0;31,29745;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10695;31,1882;41,1343</t>
+          <t>21,8556;31,2259;41,1281</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10695;31,1882;41,1343</t>
+          <t>21,0;31,6778;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5347;31,941;41,671</t>
+          <t>21,0;31,3389;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>93249</v>
+        <v>74599.9361968</v>
       </c>
       <c r="O10" t="n">
-        <v>16525</v>
+        <v>19830.0886518</v>
       </c>
       <c r="P10" t="n">
-        <v>11370</v>
+        <v>10850.92074778</v>
       </c>
       <c r="Q10" t="n">
-        <v>93249</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16525</v>
+        <v>59490.2659554</v>
       </c>
       <c r="S10" t="n">
-        <v>11370</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>46624</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8262</v>
+        <v>29745.1329777</v>
       </c>
       <c r="V10" t="n">
-        <v>5685</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10695</v>
+        <v>8556.683413600002</v>
       </c>
       <c r="X10" t="n">
-        <v>1882</v>
+        <v>2259.4988766</v>
       </c>
       <c r="Y10" t="n">
-        <v>1343</v>
+        <v>1281.94627834</v>
       </c>
       <c r="Z10" t="n">
-        <v>10695</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1882</v>
+        <v>6778.4966298</v>
       </c>
       <c r="AB10" t="n">
-        <v>1343</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5347</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>941</v>
+        <v>3389.2483149</v>
       </c>
       <c r="AE10" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,104389;31,17600;41,13698</t>
+          <t>21,83511;31,21120;41,13072</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,104389;31,17600;41,13698</t>
+          <t>21,0;31,63361;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,52194;31,8800;41,6849</t>
+          <t>21,0;31,31680;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11893;31,1998;41,1600</t>
+          <t>21,9515;31,2397;41,1527</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11893;31,1998;41,1600</t>
+          <t>21,0;31,7193;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5946;31,999;41,800</t>
+          <t>21,0;31,3596;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>104389</v>
+        <v>83511.69775760001</v>
       </c>
       <c r="O11" t="n">
-        <v>17600</v>
+        <v>21120.4516404</v>
       </c>
       <c r="P11" t="n">
-        <v>13698</v>
+        <v>13072.47492098</v>
       </c>
       <c r="Q11" t="n">
-        <v>104389</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17600</v>
+        <v>63361.3549212</v>
       </c>
       <c r="S11" t="n">
-        <v>13698</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52194</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8800</v>
+        <v>31680.6774606</v>
       </c>
       <c r="V11" t="n">
-        <v>6849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11893</v>
+        <v>9515.1304052</v>
       </c>
       <c r="X11" t="n">
-        <v>1998</v>
+        <v>2397.9899748</v>
       </c>
       <c r="Y11" t="n">
-        <v>1600</v>
+        <v>1527.34589794</v>
       </c>
       <c r="Z11" t="n">
-        <v>11893</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1998</v>
+        <v>7193.9699244</v>
       </c>
       <c r="AB11" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5946</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>999</v>
+        <v>3596.9849622</v>
       </c>
       <c r="AE11" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,124913;31,19865;41,17841</t>
+          <t>21,99930;31,23838;41,17025</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,124913;31,19865;41,17841</t>
+          <t>21,0;31,71516;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,62456;31,9932;41,8920</t>
+          <t>21,0;31,35758;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,14098;31,2241;41,2057</t>
+          <t>21,11278;31,2689;41,1963</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,14098;31,2241;41,2057</t>
+          <t>21,0;31,8069;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,7049;31,1120;41,1028</t>
+          <t>21,0;31,4034;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>124913</v>
+        <v>99930.9353616</v>
       </c>
       <c r="O12" t="n">
-        <v>19865</v>
+        <v>23838.7872828</v>
       </c>
       <c r="P12" t="n">
-        <v>17841</v>
+        <v>17025.98620106</v>
       </c>
       <c r="Q12" t="n">
-        <v>124913</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19865</v>
+        <v>71516.3618484</v>
       </c>
       <c r="S12" t="n">
-        <v>17841</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>62456</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9932</v>
+        <v>35758.1809242</v>
       </c>
       <c r="V12" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>14098</v>
+        <v>11278.7194632</v>
       </c>
       <c r="X12" t="n">
-        <v>2241</v>
+        <v>2689.6924236</v>
       </c>
       <c r="Y12" t="n">
-        <v>2057</v>
+        <v>1963.57339818</v>
       </c>
       <c r="Z12" t="n">
-        <v>14098</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2241</v>
+        <v>8069.0772708</v>
       </c>
       <c r="AB12" t="n">
-        <v>2057</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7049</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1120</v>
+        <v>4034.5386354</v>
       </c>
       <c r="AE12" t="n">
-        <v>1028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,128092;31,20320;41,18428</t>
+          <t>21,102473;31,24384;41,17586</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,128092;31,20320;41,18428</t>
+          <t>21,0;31,73154;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,64046;31,10160;41,9214</t>
+          <t>21,0;31,36577;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,14450;31,2291;41,2123</t>
+          <t>21,11560;31,2750;41,2026</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,14450;31,2291;41,2123</t>
+          <t>21,0;31,8250;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,7225;31,1145;41,1061</t>
+          <t>21,0;31,4125;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>128092</v>
+        <v>102473.8557304</v>
       </c>
       <c r="O13" t="n">
-        <v>20320</v>
+        <v>24384.7565094</v>
       </c>
       <c r="P13" t="n">
-        <v>18428</v>
+        <v>17586.38266688</v>
       </c>
       <c r="Q13" t="n">
-        <v>128092</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20320</v>
+        <v>73154.26952820001</v>
       </c>
       <c r="S13" t="n">
-        <v>18428</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64046</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10160</v>
+        <v>36577.1347641</v>
       </c>
       <c r="V13" t="n">
-        <v>9214</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>14450</v>
+        <v>11560.1347708</v>
       </c>
       <c r="X13" t="n">
-        <v>2291</v>
+        <v>2750.1619278</v>
       </c>
       <c r="Y13" t="n">
-        <v>2123</v>
+        <v>2026.76576064</v>
       </c>
       <c r="Z13" t="n">
-        <v>14450</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2291</v>
+        <v>8250.485783399999</v>
       </c>
       <c r="AB13" t="n">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>7225</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1145</v>
+        <v>4125.2428917</v>
       </c>
       <c r="AE13" t="n">
-        <v>1061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,131266;31,20774;41,19015</t>
+          <t>21,105013;31,24929;41,18146</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,131266;31,20774;41,19015</t>
+          <t>21,0;31,74789;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,65633;31,10387;41,9507</t>
+          <t>21,0;31,37394;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14801;31,2342;41,2190</t>
+          <t>21,11841;31,2810;41,2089</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,14801;31,2342;41,2190</t>
+          <t>21,0;31,8431;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,7400;31,1171;41,1095</t>
+          <t>21,0;31,4215;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>131266</v>
+        <v>105013.3418376</v>
       </c>
       <c r="O14" t="n">
-        <v>20774</v>
+        <v>24929.7572454</v>
       </c>
       <c r="P14" t="n">
-        <v>19015</v>
+        <v>18146.52520252</v>
       </c>
       <c r="Q14" t="n">
-        <v>131266</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20774</v>
+        <v>74789.2717362</v>
       </c>
       <c r="S14" t="n">
-        <v>19015</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>65633</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10387</v>
+        <v>37394.6358681</v>
       </c>
       <c r="V14" t="n">
-        <v>9507</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14801</v>
+        <v>11841.1595652</v>
       </c>
       <c r="X14" t="n">
-        <v>2342</v>
+        <v>2810.5283598</v>
       </c>
       <c r="Y14" t="n">
-        <v>2190</v>
+        <v>2089.93029756</v>
       </c>
       <c r="Z14" t="n">
-        <v>14801</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2342</v>
+        <v>8431.5850794</v>
       </c>
       <c r="AB14" t="n">
-        <v>2190</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1171</v>
+        <v>4215.7925397</v>
       </c>
       <c r="AE14" t="n">
-        <v>1095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,134445;31,21229;41,19603</t>
+          <t>21,107556;31,25475;41,18706</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,134445;31,21229;41,19603</t>
+          <t>21,0;31,76427;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,67222;31,10614;41,9801</t>
+          <t>21,0;31,38213;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,15153;31,2392;41,2256</t>
+          <t>21,12122;31,2870;41,2153</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,15153;31,2392;41,2256</t>
+          <t>21,0;31,8612;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7576;31,1196;41,1128</t>
+          <t>21,0;31,4306;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>134445</v>
+        <v>107556.2622064</v>
       </c>
       <c r="O15" t="n">
-        <v>21229</v>
+        <v>25475.726472</v>
       </c>
       <c r="P15" t="n">
-        <v>19603</v>
+        <v>18706.88826834</v>
       </c>
       <c r="Q15" t="n">
-        <v>134445</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21229</v>
+        <v>76427.179416</v>
       </c>
       <c r="S15" t="n">
-        <v>19603</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>67222</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10614</v>
+        <v>38213.589708</v>
       </c>
       <c r="V15" t="n">
-        <v>9801</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>15153</v>
+        <v>12122.5748728</v>
       </c>
       <c r="X15" t="n">
-        <v>2392</v>
+        <v>2870.997864</v>
       </c>
       <c r="Y15" t="n">
-        <v>2256</v>
+        <v>2153.08926002</v>
       </c>
       <c r="Z15" t="n">
-        <v>15153</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2392</v>
+        <v>8612.993592000001</v>
       </c>
       <c r="AB15" t="n">
-        <v>2256</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7576</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1196</v>
+        <v>4306.496796</v>
       </c>
       <c r="AE15" t="n">
-        <v>1128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,137623;31,21684;41,20190</t>
+          <t>21,110099;31,26021;41,19267</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,137623;31,21684;41,20190</t>
+          <t>21,0;31,78065;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,68811;31,10842;41,10095</t>
+          <t>21,0;31,39032;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,15504;31,2442;41,2322</t>
+          <t>21,12403;31,2931;41,2216</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,15504;31,2442;41,2322</t>
+          <t>21,0;31,8794;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7752;31,1221;41,1161</t>
+          <t>21,0;31,4397;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>137623</v>
+        <v>110099.1825752</v>
       </c>
       <c r="O16" t="n">
-        <v>21684</v>
+        <v>26021.7376986</v>
       </c>
       <c r="P16" t="n">
-        <v>20190</v>
+        <v>19267.28473416</v>
       </c>
       <c r="Q16" t="n">
-        <v>137623</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21684</v>
+        <v>78065.21309580001</v>
       </c>
       <c r="S16" t="n">
-        <v>20190</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>68811</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10842</v>
+        <v>39032.6065479</v>
       </c>
       <c r="V16" t="n">
-        <v>10095</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>15504</v>
+        <v>12403.9901804</v>
       </c>
       <c r="X16" t="n">
-        <v>2442</v>
+        <v>2931.509368200001</v>
       </c>
       <c r="Y16" t="n">
-        <v>2322</v>
+        <v>2216.28162248</v>
       </c>
       <c r="Z16" t="n">
-        <v>15504</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2442</v>
+        <v>8794.528104600002</v>
       </c>
       <c r="AB16" t="n">
-        <v>2322</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7752</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1221</v>
+        <v>4397.264052300001</v>
       </c>
       <c r="AE16" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,140802;31,22138;41,20777</t>
+          <t>21,112642;31,26566;41,19827</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,140802;31,22138;41,20777</t>
+          <t>21,0;31,79700;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,70401;31,11069;41,10388</t>
+          <t>21,0;31,39850;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15856;31,2493;41,2388</t>
+          <t>21,12685;31,2991;41,2279</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,15856;31,2493;41,2388</t>
+          <t>21,0;31,8975;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7928;31,1246;41,1194</t>
+          <t>21,0;31,4487;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>140802</v>
+        <v>112642.102944</v>
       </c>
       <c r="O17" t="n">
-        <v>22138</v>
+        <v>26566.7384346</v>
       </c>
       <c r="P17" t="n">
-        <v>20777</v>
+        <v>19827.4272698</v>
       </c>
       <c r="Q17" t="n">
-        <v>140802</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22138</v>
+        <v>79700.2153038</v>
       </c>
       <c r="S17" t="n">
-        <v>20777</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>70401</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11069</v>
+        <v>39850.1076519</v>
       </c>
       <c r="V17" t="n">
-        <v>10388</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>15856</v>
+        <v>12685.405488</v>
       </c>
       <c r="X17" t="n">
-        <v>2493</v>
+        <v>2991.8758002</v>
       </c>
       <c r="Y17" t="n">
-        <v>2388</v>
+        <v>2279.4461594</v>
       </c>
       <c r="Z17" t="n">
-        <v>15856</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2493</v>
+        <v>8975.6274006</v>
       </c>
       <c r="AB17" t="n">
-        <v>2388</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7928</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1246</v>
+        <v>4487.8137003</v>
       </c>
       <c r="AE17" t="n">
-        <v>1194</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8112</v>
+        <v>6307</v>
       </c>
       <c r="C2" t="n">
-        <v>1432</v>
+        <v>1487</v>
       </c>
       <c r="D2" t="n">
-        <v>863</v>
+        <v>1111</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>8112</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1432</v>
+        <v>3207</v>
       </c>
       <c r="J2" t="n">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4056</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>716</v>
+        <v>1603</v>
       </c>
       <c r="P2" t="n">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3168</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>440</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1796</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>898</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,8112;31,1432;41,863;22,40;32,40;42,40</t>
+          <t>21,6307;31,1487;41,1111;22,32;32,48;42,38</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,8112;31,1432;41,863;22,40;32,40;42,40</t>
+          <t>21,0;31,3207;41,0;22,0;32,144;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,4056;31,716;41,431;22,20;32,20;42,20</t>
+          <t>21,0;31,1603;41,0;22,0;32,72;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3168;31,833;41,440;22,28;32,42;42,33</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,1796;41,0;22,0;32,126;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,898;41,0;22,0;32,61;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16411</v>
+        <v>12615</v>
       </c>
       <c r="C3" t="n">
-        <v>2750</v>
+        <v>2975</v>
       </c>
       <c r="D3" t="n">
-        <v>1855</v>
+        <v>2223</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H3" t="n">
-        <v>16411</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2750</v>
+        <v>6414</v>
       </c>
       <c r="J3" t="n">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8205</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1375</v>
+        <v>3207</v>
       </c>
       <c r="P3" t="n">
-        <v>927</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>3672</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>549</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1991</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>995</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,16411;31,2750;41,1855;22,80;32,80;42,80</t>
+          <t>21,12615;31,2975;41,2223;22,64;32,96;42,76</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,16411;31,2750;41,1855;22,80;32,80;42,80</t>
+          <t>21,0;31,6414;41,0;22,0;32,288;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,8205;31,1375;41,927;22,40;32,40;42,40</t>
+          <t>21,0;31,3207;41,0;22,0;32,144;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,3672;31,923;41,549;22,56;32,84;42,66</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,1991;41,0;22,0;32,252;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,995;41,0;22,0;32,126;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24712</v>
+        <v>18923</v>
       </c>
       <c r="C4" t="n">
-        <v>3929</v>
+        <v>4463</v>
       </c>
       <c r="D4" t="n">
-        <v>3023</v>
+        <v>3335</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H4" t="n">
-        <v>24712</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3929</v>
+        <v>9622</v>
       </c>
       <c r="J4" t="n">
-        <v>3023</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>432</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12356</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1964</v>
+        <v>4811</v>
       </c>
       <c r="P4" t="n">
-        <v>1511</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>4535</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1081</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>739</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>2331</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>1165</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,24712;31,3929;41,3023;22,120;32,120;42,120</t>
+          <t>21,18923;31,4463;41,3335;22,96;32,144;42,114</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,24712;31,3929;41,3023;22,120;32,120;42,120</t>
+          <t>21,0;31,9622;41,0;22,0;32,432;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,12356;31,1964;41,1511;22,60;32,60;42,60</t>
+          <t>21,0;31,4811;41,0;22,0;32,216;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,4535;31,1081;41,739;22,84;32,126;42,100</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,2331;41,0;22,0;32,378;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,1165;41,0;22,0;32,187;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32906</v>
+        <v>25231</v>
       </c>
       <c r="C5" t="n">
-        <v>5218</v>
+        <v>5950</v>
       </c>
       <c r="D5" t="n">
-        <v>4072</v>
+        <v>4447</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H5" t="n">
-        <v>32906</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5218</v>
+        <v>12829</v>
       </c>
       <c r="J5" t="n">
-        <v>4072</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16453</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2609</v>
+        <v>6414</v>
       </c>
       <c r="P5" t="n">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>4868</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1158</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>805</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>2496</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>1248</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,32906;31,5218;41,4072;22,160;32,160;42,160</t>
+          <t>21,25231;31,5950;41,4447;22,128;32,192;42,152</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,32906;31,5218;41,4072;22,160;32,160;42,160</t>
+          <t>21,0;31,12829;41,0;22,0;32,576;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,16453;31,2609;41,2036;22,80;32,80;42,80</t>
+          <t>21,0;31,6414;41,0;22,0;32,288;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,4868;31,1158;41,805;22,112;32,168;42,133</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,2496;41,0;22,0;32,504;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,1248;41,0;22,0;32,252;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41082</v>
+        <v>31539</v>
       </c>
       <c r="C6" t="n">
-        <v>6499</v>
+        <v>7438</v>
       </c>
       <c r="D6" t="n">
-        <v>5140</v>
+        <v>5559</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H6" t="n">
-        <v>41082</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6499</v>
+        <v>16037</v>
       </c>
       <c r="J6" t="n">
-        <v>5140</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>20541</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3249</v>
+        <v>8018</v>
       </c>
       <c r="P6" t="n">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>5223</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1239</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>876</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>2672</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>630</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>1336</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,41082;31,6499;41,5140;22,200;32,200;42,200</t>
+          <t>21,31539;31,7438;41,5559;22,160;32,240;42,191</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,41082;31,6499;41,5140;22,200;32,200;42,200</t>
+          <t>21,0;31,16037;41,0;22,0;32,720;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,20541;31,3249;41,2570;22,100;32,100;42,100</t>
+          <t>21,0;31,8018;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,5223;31,1239;41,876;22,140;32,210;42,167</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,2672;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,1336;41,0;22,0;32,313;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47942</v>
+        <v>37847</v>
       </c>
       <c r="C7" t="n">
-        <v>7568</v>
+        <v>8926</v>
       </c>
       <c r="D7" t="n">
-        <v>6669</v>
+        <v>6671</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H7" t="n">
-        <v>47942</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7568</v>
+        <v>19244</v>
       </c>
       <c r="J7" t="n">
-        <v>6669</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>23971</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3784</v>
+        <v>9622</v>
       </c>
       <c r="P7" t="n">
-        <v>3334</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>432</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>5600</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1326</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>952</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>2859</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>756</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>1429</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,47942;31,7568;41,6669;22,240;32,240;42,240</t>
+          <t>21,37847;31,8926;41,6671;22,192;32,288;42,229</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,47942;31,7568;41,6669;22,240;32,240;42,240</t>
+          <t>21,0;31,19244;41,0;22,0;32,864;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,23971;31,3784;41,3334;22,120;32,120;42,120</t>
+          <t>21,0;31,9622;41,0;22,0;32,432;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,5600;31,1326;41,952;22,168;32,252;42,200</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,2859;41,0;22,0;32,756;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,1429;41,0;22,0;32,378;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>54799</v>
+        <v>44155</v>
       </c>
       <c r="C8" t="n">
-        <v>8633</v>
+        <v>10413</v>
       </c>
       <c r="D8" t="n">
-        <v>8208</v>
+        <v>7783</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H8" t="n">
-        <v>54799</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8633</v>
+        <v>22451</v>
       </c>
       <c r="J8" t="n">
-        <v>8208</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>1008</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>27399</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4316</v>
+        <v>11225</v>
       </c>
       <c r="P8" t="n">
-        <v>4104</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6002</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1418</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>3058</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>882</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>1529</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>439</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,54799;31,8633;41,8208;22,280;32,280;42,280</t>
+          <t>21,44155;31,10413;41,7783;22,224;32,336;42,267</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,54799;31,8633;41,8208;22,280;32,280;42,280</t>
+          <t>21,0;31,22451;41,0;22,0;32,1008;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,27399;31,4316;41,4104;22,140;32,140;42,140</t>
+          <t>21,0;31,11225;41,0;22,0;32,504;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6002;31,1418;41,1034;22,196;32,294;42,234</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,3058;41,0;22,0;32,882;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,1529;41,0;22,0;32,439;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>62190</v>
+        <v>50463</v>
       </c>
       <c r="C9" t="n">
-        <v>9778</v>
+        <v>11901</v>
       </c>
       <c r="D9" t="n">
-        <v>9572</v>
+        <v>8895</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H9" t="n">
-        <v>62190</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9778</v>
+        <v>25659</v>
       </c>
       <c r="J9" t="n">
-        <v>9572</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>1134</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>31095</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4889</v>
+        <v>12829</v>
       </c>
       <c r="P9" t="n">
-        <v>4786</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>6675</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1574</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1172</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>3394</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>1008</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1697</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,62190;31,9778;41,9572;22,315;32,315;42,315</t>
+          <t>21,50463;31,11901;41,8895;22,252;32,378;42,301</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,62190;31,9778;41,9572;22,315;32,315;42,315</t>
+          <t>21,0;31,25659;41,0;22,0;32,1134;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,31095;31,4889;41,4786;22,157;32,157;42,157</t>
+          <t>21,0;31,12829;41,0;22,0;32,565;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,6675;31,1574;41,1172;22,224;32,336;42,267</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,3394;41,0;22,0;32,1008;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1697;41,0;22,0;32,504;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>70588</v>
+        <v>56771</v>
       </c>
       <c r="C10" t="n">
-        <v>11098</v>
+        <v>13389</v>
       </c>
       <c r="D10" t="n">
-        <v>10543</v>
+        <v>10007</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H10" t="n">
-        <v>70588</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11098</v>
+        <v>28866</v>
       </c>
       <c r="J10" t="n">
-        <v>10543</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>1206</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>35294</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5549</v>
+        <v>14433</v>
       </c>
       <c r="P10" t="n">
-        <v>5271</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>601</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>7227</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1704</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1285</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>3675</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>1134</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1837</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,70588;31,11098;41,10543;22,335;32,335;42,335</t>
+          <t>21,56771;31,13389;41,10007;22,268;32,402;42,320</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,70588;31,11098;41,10543;22,335;32,335;42,335</t>
+          <t>21,0;31,28866;41,0;22,0;32,1206;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,35294;31,5549;41,5271;22,167;32,167;42,167</t>
+          <t>21,0;31,14433;41,0;22,0;32,601;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,7227;31,1704;41,1285;22,252;32,378;42,301</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,3675;41,0;22,0;32,1134;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1837;41,0;22,0;32,565;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>78849</v>
+        <v>63079</v>
       </c>
       <c r="C11" t="n">
-        <v>12397</v>
+        <v>14877</v>
       </c>
       <c r="D11" t="n">
-        <v>11635</v>
+        <v>11119</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H11" t="n">
-        <v>78849</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12397</v>
+        <v>32074</v>
       </c>
       <c r="J11" t="n">
-        <v>11635</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>1260</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39424</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6198</v>
+        <v>16037</v>
       </c>
       <c r="P11" t="n">
-        <v>5817</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>630</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>7792</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1837</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1402</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>3962</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>1260</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>1981</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>630</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,78849;31,12397;41,11635;22,350;32,350;42,350</t>
+          <t>21,63079;31,14877;41,11119;22,280;32,420;42,334</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,78849;31,12397;41,11635;22,350;32,350;42,350</t>
+          <t>21,0;31,32074;41,0;22,0;32,1260;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,39424;31,6198;41,5817;22,175;32,175;42,175</t>
+          <t>21,0;31,16037;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,7792;31,1837;41,1402;22,280;32,420;42,334</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,3962;41,0;22,0;32,1260;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,1981;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5617062.74644</v>
+        <v>5792783.849384</v>
       </c>
       <c r="U2" t="n">
-        <v>884313.3069515</v>
+        <v>925757.0453861</v>
       </c>
       <c r="V2" t="n">
-        <v>745483.452871</v>
+        <v>776429.8801408</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,111774;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,55887;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11801697.24322</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>639624.85494409</v>
       </c>
       <c r="AS2" t="n">
-        <v>16020480.9184136</v>
+        <v>16660105.77335769</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>707592.97638</v>
+        <v>728070.381868</v>
       </c>
       <c r="U3" t="n">
-        <v>130102.5845055</v>
+        <v>134931.4603057</v>
       </c>
       <c r="V3" t="n">
-        <v>95914.65186300001</v>
+        <v>99596.09802240001</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,12937;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,6468;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1337817.27214</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>74964.96392593</v>
       </c>
       <c r="AS3" t="n">
-        <v>2171936.5576802</v>
+        <v>2246901.52160613</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>59347.4584</v>
+        <v>65789.20226688001</v>
       </c>
       <c r="U7" t="n">
-        <v>10230.325</v>
+        <v>11752.58736</v>
       </c>
       <c r="V7" t="n">
-        <v>5771.038</v>
+        <v>6899.103944400001</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3312;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1655;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>119445.5694</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23431.73333118</v>
       </c>
       <c r="AS7" t="n">
-        <v>168267.6694</v>
+        <v>191699.40273118</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>59557.995692</v>
+        <v>72442.48342576</v>
       </c>
       <c r="U8" t="n">
-        <v>10267.056625</v>
+        <v>13312.581345</v>
       </c>
       <c r="V8" t="n">
-        <v>5784.511114000001</v>
+        <v>8041.643002800001</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,6625;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3312;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>119445.5694</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>46877.11666236</v>
       </c>
       <c r="AS8" t="n">
-        <v>168809.12531</v>
+        <v>215686.24197236</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>255762.018986</v>
+        <v>262690.24252904</v>
       </c>
       <c r="U10" t="n">
-        <v>41240.30323999999</v>
+        <v>42875.38827039999</v>
       </c>
       <c r="V10" t="n">
-        <v>28627.6686057</v>
+        <v>29829.82643292</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,3651;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1825;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>545765.774325</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>25122.717759315</v>
       </c>
       <c r="AS10" t="n">
-        <v>717223.2058247749</v>
+        <v>742345.92358409</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>265468.636846</v>
+        <v>300113.7545612</v>
       </c>
       <c r="U11" t="n">
-        <v>42782.85563999999</v>
+        <v>50961.28079199999</v>
       </c>
       <c r="V11" t="n">
-        <v>29347.3356627</v>
+        <v>35364.52368899</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,18258;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,9128;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>545765.774325</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>125675.0824151675</v>
       </c>
       <c r="AS11" t="n">
-        <v>741839.0208225249</v>
+        <v>867514.1032376924</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>275175.254706</v>
+        <v>309820.3724212</v>
       </c>
       <c r="U12" t="n">
-        <v>44325.40803999999</v>
+        <v>52503.83319199999</v>
       </c>
       <c r="V12" t="n">
-        <v>30067.0027197</v>
+        <v>36084.19074599</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,18258;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,9128;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>545765.774325</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>125675.0824151675</v>
       </c>
       <c r="AS12" t="n">
-        <v>766454.8358202749</v>
+        <v>892129.9182354424</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>284881.872566</v>
+        <v>353396.5785676</v>
       </c>
       <c r="U13" t="n">
-        <v>45867.96044</v>
+        <v>62040.70445599999</v>
       </c>
       <c r="V13" t="n">
-        <v>30786.6697767</v>
+        <v>42706.89910016</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,35961;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,17980;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>545765.774325</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>248647.958321895</v>
       </c>
       <c r="AS13" t="n">
-        <v>791070.650818025</v>
+        <v>1039718.60913992</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>284881.872566</v>
+        <v>319526.9902812</v>
       </c>
       <c r="U14" t="n">
-        <v>45867.96044</v>
+        <v>54046.38559199999</v>
       </c>
       <c r="V14" t="n">
-        <v>30786.6697767</v>
+        <v>36803.85780299</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,18258;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,9128;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>545765.774325</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>125675.0824151675</v>
       </c>
       <c r="AS14" t="n">
-        <v>790895.650818025</v>
+        <v>916570.7332331925</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>431286.246877</v>
+        <v>474733.00163028</v>
       </c>
       <c r="U15" t="n">
-        <v>68866.10170299999</v>
+        <v>79121.09332987999</v>
       </c>
       <c r="V15" t="n">
-        <v>52096.01637960001</v>
+        <v>59690.43774748001</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,23230;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,11615;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>842746.58124</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>157874.119844062</v>
       </c>
       <c r="AS15" t="n">
-        <v>1218865.9428104</v>
+        <v>1376740.062654462</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>431286.246877</v>
+        <v>481974.29408916</v>
       </c>
       <c r="U16" t="n">
-        <v>68866.10170299999</v>
+        <v>80829.59193436</v>
       </c>
       <c r="V16" t="n">
-        <v>52096.01637960001</v>
+        <v>60955.66924084</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,27102;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,13550;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>842746.58124</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>184179.133760674</v>
       </c>
       <c r="AS16" t="n">
-        <v>1219040.9428104</v>
+        <v>1403220.076571074</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1101005.2409635</v>
+        <v>1167799.70076634</v>
       </c>
       <c r="U17" t="n">
-        <v>174123.437386</v>
+        <v>189884.24079136</v>
       </c>
       <c r="V17" t="n">
-        <v>145932.0008</v>
+        <v>157884.12536</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,37238;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,18598;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1937468.28998</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>244268.719519824</v>
       </c>
       <c r="AS17" t="n">
-        <v>3155292.4635269</v>
+        <v>3399561.183046724</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5617062.74644</v>
+        <v>5792783.849384</v>
       </c>
       <c r="U18" t="n">
-        <v>884313.3069515</v>
+        <v>925757.0453861</v>
       </c>
       <c r="V18" t="n">
-        <v>745483.452871</v>
+        <v>776429.8801408</v>
       </c>
       <c r="W18" t="n">
         <v>2300</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,111774;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,55887;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11801697.24322</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>639624.85494409</v>
       </c>
       <c r="AS18" t="n">
-        <v>16020480.9184136</v>
+        <v>16660105.77335769</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9285054.15102</v>
+        <v>9460775.253963999</v>
       </c>
       <c r="U19" t="n">
-        <v>1461583.1236685</v>
+        <v>1503026.8621031</v>
       </c>
       <c r="V19" t="n">
-        <v>1223057.369172</v>
+        <v>1254003.7964418</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,111774;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,55887;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>19148247.01463</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>639624.85494409</v>
       </c>
       <c r="AS19" t="n">
-        <v>26419959.07707165</v>
+        <v>27059583.93201574</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>228589.876663</v>
+        <v>232312.31253828</v>
       </c>
       <c r="U20" t="n">
-        <v>39923.4170645</v>
+        <v>40902.22776268</v>
       </c>
       <c r="V20" t="n">
-        <v>25331.8729804</v>
+        <v>25847.93377884</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,2233;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1109;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>570914.1387100001</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13443.579283752</v>
       </c>
       <c r="AS20" t="n">
-        <v>654867.22404535</v>
+        <v>668310.803329102</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>298825.270437</v>
+        <v>303816.58940804</v>
       </c>
       <c r="U21" t="n">
-        <v>50099.265218</v>
+        <v>51354.17481784</v>
       </c>
       <c r="V21" t="n">
-        <v>34373.6475574</v>
+        <v>35118.87550888</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,2986;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1492;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>680013.8716899999</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17935.255930946</v>
       </c>
       <c r="AS21" t="n">
-        <v>849682.4238962501</v>
+        <v>867617.6798271961</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>415498.345934</v>
+        <v>424908.6172852</v>
       </c>
       <c r="U22" t="n">
-        <v>67379.83360899999</v>
+        <v>69617.2711708</v>
       </c>
       <c r="V22" t="n">
-        <v>50377.39969590001</v>
+        <v>51945.71288021001</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,5667;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,2824;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>866345.172795</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33866.3913374025</v>
       </c>
       <c r="AS22" t="n">
-        <v>1182638.246087525</v>
+        <v>1216504.637424928</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>477967.2552665</v>
+        <v>490352.78444678</v>
       </c>
       <c r="U23" t="n">
-        <v>79076.053669</v>
+        <v>82009.13503511999</v>
       </c>
       <c r="V23" t="n">
-        <v>58839.3843322</v>
+        <v>60952.06619256</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,7603;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,3791;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>947156.29847</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>44771.71130357801</v>
       </c>
       <c r="AS23" t="n">
-        <v>1374944.98549275</v>
+        <v>1419716.696796328</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>553607.51565</v>
+        <v>568511.160802</v>
       </c>
       <c r="U24" t="n">
-        <v>95829.752507</v>
+        <v>99348.50167083999</v>
       </c>
       <c r="V24" t="n">
-        <v>71075.9813444</v>
+        <v>73672.95475876</v>
       </c>
       <c r="W24" t="n">
         <v>2300</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,9228;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,4614;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1074419.65896</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>54115.611515066</v>
       </c>
       <c r="AS24" t="n">
-        <v>1637246.2006786</v>
+        <v>1691361.812193666</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>707592.97638</v>
+        <v>728070.381868</v>
       </c>
       <c r="U25" t="n">
-        <v>130102.5845055</v>
+        <v>134931.4603057</v>
       </c>
       <c r="V25" t="n">
-        <v>95914.65186300001</v>
+        <v>99596.09802240001</v>
       </c>
       <c r="W25" t="n">
         <v>2300</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,12937;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,6468;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1337817.27214</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>74964.96392593</v>
       </c>
       <c r="AS25" t="n">
-        <v>2171936.5576802</v>
+        <v>2246901.52160613</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/11.xlsx
+++ b/opm_hero_property/heroes/11.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>11</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5792783.849384</v>
+        <v>6758287.429223999</v>
       </c>
       <c r="U2" t="n">
-        <v>925757.0453861</v>
+        <v>1077566.3566901</v>
       </c>
       <c r="V2" t="n">
-        <v>776429.8801408</v>
+        <v>918901.7239008</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11801697.24322</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1617886.6251936</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2949694.1794576</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1888131.15</v>
+      </c>
+      <c r="AU2" t="n">
         <v>639624.85494409</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16660105.77335769</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19492306.70281529</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>11</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>728070.381868</v>
+        <v>836802.3975480001</v>
       </c>
       <c r="U3" t="n">
-        <v>134931.4603057</v>
+        <v>152027.2713537</v>
       </c>
       <c r="V3" t="n">
-        <v>99596.09802240001</v>
+        <v>115974.8493024</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1337817.27214</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>183286.2855402</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>574762.9817712001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>213911.55</v>
+      </c>
+      <c r="AU3" t="n">
         <v>74964.96392593</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2246901.52160613</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2567772.45337733</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>11</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7720.8036</v>
+        <v>8228.803599999999</v>
       </c>
       <c r="U4" t="n">
-        <v>1582.3436</v>
+        <v>1662.3436</v>
       </c>
       <c r="V4" t="n">
-        <v>594.0436999999999</v>
+        <v>669.0436999999999</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19318.075715</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23868.025715</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1491.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25359.275715</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>11</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20789.9126</v>
+        <v>35735.9126</v>
       </c>
       <c r="U5" t="n">
-        <v>3953.5174</v>
+        <v>6303.517400000001</v>
       </c>
       <c r="V5" t="n">
-        <v>1833.235</v>
+        <v>4038.235</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49504.38391</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61492.73391</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43839.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105332.48391</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>11</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>59347.4584</v>
+        <v>123424.4584</v>
       </c>
       <c r="U6" t="n">
-        <v>10230.325</v>
+        <v>20305.325</v>
       </c>
       <c r="V6" t="n">
-        <v>5771.038</v>
+        <v>15226.038</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119445.5694</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>168092.6694</v>
+      <c r="AT6" t="n">
+        <v>187960.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>356053.4194000001</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>11</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>65789.20226688001</v>
+        <v>129866.20226688</v>
       </c>
       <c r="U7" t="n">
-        <v>11752.58736</v>
+        <v>21827.58736</v>
       </c>
       <c r="V7" t="n">
-        <v>6899.103944400001</v>
+        <v>16354.1039444</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119445.5694</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>187960.75</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23431.73333118</v>
       </c>
-      <c r="AS7" t="n">
-        <v>191699.40273118</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>379660.15273118</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>11</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>72442.48342576</v>
+        <v>136519.48342576</v>
       </c>
       <c r="U8" t="n">
-        <v>13312.581345</v>
+        <v>23387.581345</v>
       </c>
       <c r="V8" t="n">
-        <v>8041.643002800001</v>
+        <v>17496.6430028</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119445.5694</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>541.45591</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>187960.75</v>
+      </c>
+      <c r="AU8" t="n">
         <v>46877.11666236</v>
       </c>
-      <c r="AS8" t="n">
-        <v>215686.24197236</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>403646.9919723601</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>11</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>254791.3572</v>
+        <v>443665.680772</v>
       </c>
       <c r="U9" t="n">
-        <v>41086.048</v>
+        <v>69945.55847999999</v>
       </c>
       <c r="V9" t="n">
-        <v>28555.7019</v>
+        <v>55006.59091899999</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>545765.774325</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>714774.374325</v>
+        <v>45068.00774325</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>440420.55</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1254991.93206825</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>11</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>262690.24252904</v>
+        <v>509289.6882908587</v>
       </c>
       <c r="U10" t="n">
-        <v>42875.38827039999</v>
+        <v>81038.9231054144</v>
       </c>
       <c r="V10" t="n">
-        <v>29829.82643292</v>
+        <v>62790.96833005456</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>545765.774325</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2448.831499775</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>45068.00774325</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>440420.55</v>
+      </c>
+      <c r="AU10" t="n">
         <v>25122.717759315</v>
       </c>
-      <c r="AS10" t="n">
-        <v>742345.92358409</v>
+      <c r="AV10" t="n">
+        <v>253704.4442886919</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1441920.325616032</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>11</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>300113.7545612</v>
+        <v>611561.5435395977</v>
       </c>
       <c r="U11" t="n">
-        <v>50961.28079199999</v>
+        <v>98126.59575779199</v>
       </c>
       <c r="V11" t="n">
-        <v>35364.52368899</v>
+        <v>75551.29013673383</v>
       </c>
       <c r="W11" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="AA11" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>545765.774325</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>27064.646497525</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>45068.00774325</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>440420.55</v>
+      </c>
+      <c r="AU11" t="n">
         <v>125675.0824151675</v>
       </c>
-      <c r="AS11" t="n">
-        <v>867514.1032376924</v>
+      <c r="AV11" t="n">
+        <v>422212.4115736395</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1735596.472554582</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>11</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>309820.3724212</v>
+        <v>703908.7406090571</v>
       </c>
       <c r="U12" t="n">
-        <v>52503.83319199999</v>
+        <v>109062.549889112</v>
       </c>
       <c r="V12" t="n">
-        <v>36084.19074599</v>
+        <v>87201.93711511957</v>
       </c>
       <c r="W12" t="n">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2460</v>
+        <v>2480</v>
       </c>
       <c r="AA12" t="n">
-        <v>3810</v>
+        <v>3830</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>545765.774325</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>51680.46149527501</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>45068.00774325</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>440420.55</v>
+      </c>
+      <c r="AU12" t="n">
         <v>125675.0824151675</v>
       </c>
-      <c r="AS12" t="n">
-        <v>892129.9182354424</v>
+      <c r="AV12" t="n">
+        <v>632640.5972771749</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1970640.473255867</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>11</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>353396.5785676</v>
+        <v>844472.0630845316</v>
       </c>
       <c r="U13" t="n">
-        <v>62040.70445599999</v>
+        <v>131647.959449656</v>
       </c>
       <c r="V13" t="n">
-        <v>42706.89910016</v>
+        <v>104956.2712201647</v>
       </c>
       <c r="W13" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2610</v>
+        <v>2660</v>
       </c>
       <c r="AA13" t="n">
-        <v>3810</v>
+        <v>3860</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>545765.774325</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>76296.27649302501</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>45068.00774325</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>440420.55</v>
+      </c>
+      <c r="AU13" t="n">
         <v>248647.958321895</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1039718.60913992</v>
+      <c r="AV13" t="n">
+        <v>884029.475919935</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2369618.042803105</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>11</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>319526.9902812</v>
+        <v>942421.6649181537</v>
       </c>
       <c r="U14" t="n">
-        <v>54046.38559199999</v>
+        <v>138332.053577728</v>
       </c>
       <c r="V14" t="n">
-        <v>36803.85780299</v>
+        <v>109157.1167457178</v>
       </c>
       <c r="W14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2610</v>
+        <v>2660</v>
       </c>
       <c r="AA14" t="n">
-        <v>3740</v>
+        <v>3790</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>545765.774325</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>76296.27649302501</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44893.00774325</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>440420.55</v>
+      </c>
+      <c r="AU14" t="n">
         <v>125675.0824151675</v>
       </c>
-      <c r="AS14" t="n">
-        <v>916570.7332331925</v>
+      <c r="AV14" t="n">
+        <v>1175227.064915912</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2537667.755892354</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>11</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>474733.00163028</v>
+        <v>1503131.005916706</v>
       </c>
       <c r="U15" t="n">
-        <v>79121.09332987999</v>
+        <v>229892.7144746116</v>
       </c>
       <c r="V15" t="n">
-        <v>59690.43774748001</v>
+        <v>184678.7108210136</v>
       </c>
       <c r="W15" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2610</v>
+        <v>2710</v>
       </c>
       <c r="AA15" t="n">
-        <v>3880</v>
+        <v>3980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>842746.58124</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>116504.8115704</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128963.8316248</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>805820.7</v>
+      </c>
+      <c r="AU15" t="n">
         <v>157874.119844062</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1376740.062654462</v>
+      <c r="AV15" t="n">
+        <v>1965945.628733092</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4165344.823012354</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>11</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>481974.29408916</v>
+        <v>1538941.311902632</v>
       </c>
       <c r="U16" t="n">
-        <v>80829.59193436</v>
+        <v>235967.712025987</v>
       </c>
       <c r="V16" t="n">
-        <v>60955.66924084</v>
+        <v>189359.9496811455</v>
       </c>
       <c r="W16" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AA16" t="n">
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>842746.58124</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>116504.8115704</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>129138.8316248</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>805820.7</v>
+      </c>
+      <c r="AU16" t="n">
         <v>184179.133760674</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1403220.076571074</v>
+      <c r="AV16" t="n">
+        <v>2045485.527352656</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4271364.735548529</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>11</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1167799.70076634</v>
+        <v>2825464.667838413</v>
       </c>
       <c r="U17" t="n">
-        <v>189884.24079136</v>
+        <v>425537.570435794</v>
       </c>
       <c r="V17" t="n">
-        <v>157884.12536</v>
+        <v>362217.81131392</v>
       </c>
       <c r="W17" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AA17" t="n">
-        <v>4230</v>
+        <v>4430</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1937468.28998</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>264354.0735468999</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>760969.3315991999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1287509.05</v>
+      </c>
+      <c r="AU17" t="n">
         <v>244268.719519824</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3399561.183046724</v>
+      <c r="AV17" t="n">
+        <v>3096016.854254507</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7860552.818900432</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>11</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5792783.849384</v>
+        <v>10029984.70705053</v>
       </c>
       <c r="U18" t="n">
-        <v>925757.0453861</v>
+        <v>1473262.786779532</v>
       </c>
       <c r="V18" t="n">
-        <v>776429.8801408</v>
+        <v>1250493.871321094</v>
       </c>
       <c r="W18" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AA18" t="n">
-        <v>4790</v>
+        <v>4990</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11801697.24322</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1617886.6251936</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2949694.1794576</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1888131.15</v>
+      </c>
+      <c r="AU18" t="n">
         <v>639624.85494409</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16660105.77335769</v>
+      <c r="AV18" t="n">
+        <v>7911057.493110298</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27403364.19592559</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>11</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9460775.253963999</v>
+        <v>17180660.85129178</v>
       </c>
       <c r="U19" t="n">
-        <v>1503026.8621031</v>
+        <v>2622923.52826559</v>
       </c>
       <c r="V19" t="n">
-        <v>1254003.7964418</v>
+        <v>2217196.095057491</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AA19" t="n">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19148247.01463</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2626736.71244165</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6341246.502194501</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1888131.15</v>
+      </c>
+      <c r="AU19" t="n">
         <v>639624.85494409</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27059583.93201574</v>
+      <c r="AV19" t="n">
+        <v>16227683.85869468</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48047512.24290492</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>11</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>232312.31253828</v>
+        <v>239528.31253828</v>
       </c>
       <c r="U20" t="n">
-        <v>40902.22776268</v>
+        <v>42036.22776268</v>
       </c>
       <c r="V20" t="n">
-        <v>25847.93377884</v>
+        <v>26934.93377884</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>570914.1387100001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2585.38533535</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21290.85</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13443.579283752</v>
       </c>
-      <c r="AS20" t="n">
-        <v>668310.803329102</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>689601.653329102</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>11</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>303816.58940804</v>
+        <v>318691.51614204</v>
       </c>
       <c r="U21" t="n">
-        <v>51354.17481784</v>
+        <v>53717.30529384</v>
       </c>
       <c r="V21" t="n">
-        <v>35118.87550888</v>
+        <v>37301.19058688</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>680013.8716899999</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>33721.85220625001</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>74441.4887169</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36936.95</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17935.255930946</v>
       </c>
-      <c r="AS21" t="n">
-        <v>867617.6798271961</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>911346.518544096</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>11</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>424908.6172852</v>
+        <v>556178.2521024083</v>
       </c>
       <c r="U22" t="n">
-        <v>69617.2711708</v>
+        <v>88294.6937567328</v>
       </c>
       <c r="V22" t="n">
-        <v>51945.71288021001</v>
+        <v>67567.09849375965</v>
       </c>
       <c r="W22" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="AA22" t="n">
-        <v>3810</v>
+        <v>3860</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>866345.172795</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>81123.023292525</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>106173.60172795</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49893.45</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33866.3913374025</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1216504.637424928</v>
+      <c r="AV22" t="n">
+        <v>292018.1662101051</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1567071.455362983</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>11</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>490352.78444678</v>
+        <v>715574.5358337659</v>
       </c>
       <c r="U23" t="n">
-        <v>82009.13503511999</v>
+        <v>117642.705670517</v>
       </c>
       <c r="V23" t="n">
-        <v>60952.06619256</v>
+        <v>88283.05286014009</v>
       </c>
       <c r="W23" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AA23" t="n">
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>947156.29847</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>130630.08702275</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171452.6259694</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>91292.60000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>44771.71130357801</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1419716.696796328</v>
+      <c r="AV23" t="n">
+        <v>520427.336140411</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2050363.258906139</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>11</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>568511.160802</v>
+        <v>903269.6616223719</v>
       </c>
       <c r="U24" t="n">
-        <v>99348.50167083999</v>
+        <v>152868.5768509359</v>
       </c>
       <c r="V24" t="n">
-        <v>73672.95475876</v>
+        <v>115409.6309802691</v>
       </c>
       <c r="W24" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AA24" t="n">
-        <v>4230</v>
+        <v>4430</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1074419.65896</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>147763.3417186</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>300564.9863584</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>145864.55</v>
+      </c>
+      <c r="AU24" t="n">
         <v>54115.611515066</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1691361.812193666</v>
+      <c r="AV24" t="n">
+        <v>757624.5714783109</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2637794.720030377</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>11</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>728070.381868</v>
+        <v>1548809.199551424</v>
       </c>
       <c r="U25" t="n">
-        <v>134931.4603057</v>
+        <v>261886.1074477557</v>
       </c>
       <c r="V25" t="n">
-        <v>99596.09802240001</v>
+        <v>200009.6835433632</v>
       </c>
       <c r="W25" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AA25" t="n">
-        <v>4790</v>
+        <v>4990</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1337817.27214</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>183286.2855402</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>574762.9817712001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>213911.55</v>
+      </c>
+      <c r="AU25" t="n">
         <v>74964.96392593</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2246901.52160613</v>
+      <c r="AV25" t="n">
+        <v>1955633.067937947</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4523405.521315277</v>
       </c>
     </row>
   </sheetData>
